--- a/artfynd/A 21345-2023.xlsx
+++ b/artfynd/A 21345-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY24"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3300,6 +3300,123 @@
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112170842</v>
+      </c>
+      <c r="B25" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Stor Kärmsjön, Ång</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>583983.7355864819</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7086628.639155544</v>
+      </c>
+      <c r="S25" t="n">
+        <v>25</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Maria Johansson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 21345-2023.xlsx
+++ b/artfynd/A 21345-2023.xlsx
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>583983.7355864819</v>
+        <v>583984</v>
       </c>
       <c r="R25" t="n">
-        <v>7086628.639155544</v>
+        <v>7086629</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3379,19 +3379,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">

--- a/artfynd/A 21345-2023.xlsx
+++ b/artfynd/A 21345-2023.xlsx
@@ -3305,7 +3305,7 @@
         <v>112170842</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>

--- a/artfynd/A 21345-2023.xlsx
+++ b/artfynd/A 21345-2023.xlsx
@@ -3305,7 +3305,7 @@
         <v>112170842</v>
       </c>
       <c r="B25" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
